--- a/Mypackage1.xlsx
+++ b/Mypackage1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TransitusPC-21\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FE44CE-F88E-4A98-96D1-8CF35AA90B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A48BF8-3250-40D0-BF40-29033343848C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="77">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -251,12 +251,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Not needed</t>
   </si>
 </sst>
 </file>
@@ -629,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J116" sqref="J116"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>33</v>
       </c>
@@ -1419,7 +1413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>36</v>
       </c>
@@ -1430,7 +1424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>39</v>
       </c>
@@ -1441,7 +1435,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
         <v>42</v>
       </c>
@@ -1452,7 +1446,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
         <v>45</v>
       </c>
@@ -1463,7 +1457,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
         <v>48</v>
       </c>
@@ -1474,7 +1468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
         <v>50</v>
       </c>
@@ -1485,7 +1479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>52</v>
       </c>
@@ -1496,7 +1490,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
         <v>54</v>
       </c>
@@ -1507,7 +1501,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
         <v>56</v>
       </c>
@@ -1518,7 +1512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
         <v>59</v>
       </c>
@@ -1529,7 +1523,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -1546,13 +1540,10 @@
         <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>77</v>
-      </c>
-      <c r="J76" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
         <v>15</v>
       </c>
@@ -1563,7 +1554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
         <v>21</v>
       </c>
@@ -1585,7 +1576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +1587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
         <v>27</v>
       </c>
@@ -1607,7 +1598,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>30</v>
       </c>
@@ -1618,7 +1609,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>33</v>
       </c>
@@ -1629,7 +1620,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>36</v>
       </c>
@@ -1640,7 +1631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>39</v>
       </c>
@@ -1651,7 +1642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>42</v>
       </c>
@@ -1662,7 +1653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
         <v>45</v>
       </c>
@@ -1673,7 +1664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
         <v>48</v>
       </c>
@@ -1684,7 +1675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
         <v>50</v>
       </c>
@@ -1695,7 +1686,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>52</v>
       </c>
@@ -1706,7 +1697,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
         <v>54</v>
       </c>
@@ -1717,7 +1708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
         <v>56</v>
       </c>
@@ -1728,7 +1719,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>59</v>
       </c>
@@ -1739,7 +1730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
         <v>70</v>
       </c>
@@ -1750,7 +1741,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>71</v>
       </c>
@@ -1767,13 +1758,10 @@
         <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>77</v>
-      </c>
-      <c r="J95" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
         <v>15</v>
       </c>
